--- a/dev-count-runs/scm_summary_20251205.xlsx
+++ b/dev-count-runs/scm_summary_20251205.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
     <t>SCM Report Summary</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Time of report</t>
   </si>
   <si>
-    <t>9:55:25 AM</t>
+    <t>10:05:53 AM</t>
   </si>
   <si>
     <t>Total unique contributors across GitLab</t>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>j.totzek@gmail.com</t>
+  </si>
+  <si>
+    <t>Veracode Dev Count</t>
+  </si>
+  <si>
+    <t>dev-count@veracode.com</t>
   </si>
   <si>
     <t>julian-veracode/veracode</t>
@@ -523,7 +529,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>115</v>
@@ -551,7 +557,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -562,7 +568,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
@@ -593,18 +599,18 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -615,7 +621,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -626,7 +632,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -637,7 +643,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -648,7 +654,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -659,7 +665,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -670,12 +676,23 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
         <v>17</v>
       </c>
     </row>

--- a/dev-count-runs/scm_summary_20251205.xlsx
+++ b/dev-count-runs/scm_summary_20251205.xlsx
@@ -5,15 +5,13 @@
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
     <sheet sheetId="1" name="SCM Report Summary" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="GitHub Details" state="visible" r:id="rId5"/>
-    <sheet sheetId="3" name="GitHub Details - Removed" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>SCM Report Summary</t>
   </si>
@@ -36,7 +34,7 @@
     <t>Time of report</t>
   </si>
   <si>
-    <t>10:05:53 AM</t>
+    <t>10:16:38 AM</t>
   </si>
   <si>
     <t>Total unique contributors across GitLab</t>
@@ -49,54 +47,6 @@
   </si>
   <si>
     <t>Total unique across All SCM Platforms</t>
-  </si>
-  <si>
-    <t>Repository</t>
-  </si>
-  <si>
-    <t>Committer</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>julz0815/dev-count-test-headless</t>
-  </si>
-  <si>
-    <t>Julian Totzek-Hallhuber</t>
-  </si>
-  <si>
-    <t>j.totzek@gmail.com</t>
-  </si>
-  <si>
-    <t>Veracode Dev Count</t>
-  </si>
-  <si>
-    <t>dev-count@veracode.com</t>
-  </si>
-  <si>
-    <t>julian-veracode/veracode</t>
-  </si>
-  <si>
-    <t>julz0815/veracode-dev-count</t>
-  </si>
-  <si>
-    <t>julz0815/dast-findings-per-scan</t>
-  </si>
-  <si>
-    <t>julz0815/remove-mitigations-pipeline-scan</t>
-  </si>
-  <si>
-    <t>julz0815/test-action</t>
-  </si>
-  <si>
-    <t>julian-veracode/GitHubApp-no-config</t>
-  </si>
-  <si>
-    <t>julz0815/trivia-app</t>
-  </si>
-  <si>
-    <t>julian-veracode/GitHubApp-with-config</t>
   </si>
 </sst>
 </file>
@@ -529,7 +479,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>115</v>
@@ -557,169 +507,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <cols>
-    <col min="1" max="1" width="50" customWidth="1"/>
-    <col min="2" max="3" width="40" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <cols>
-    <col min="1" max="1" width="50" customWidth="1"/>
-    <col min="2" max="3" width="40" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/dev-count-runs/scm_summary_20251205.xlsx
+++ b/dev-count-runs/scm_summary_20251205.xlsx
@@ -34,7 +34,7 @@
     <t>Time of report</t>
   </si>
   <si>
-    <t>10:16:38 AM</t>
+    <t>10:29:29 AM</t>
   </si>
   <si>
     <t>Total unique contributors across GitLab</t>

--- a/dev-count-runs/scm_summary_20251205.xlsx
+++ b/dev-count-runs/scm_summary_20251205.xlsx
@@ -34,7 +34,7 @@
     <t>Time of report</t>
   </si>
   <si>
-    <t>10:29:29 AM</t>
+    <t>10:37:48 AM</t>
   </si>
   <si>
     <t>Total unique contributors across GitLab</t>

--- a/dev-count-runs/scm_summary_20251205.xlsx
+++ b/dev-count-runs/scm_summary_20251205.xlsx
@@ -34,7 +34,7 @@
     <t>Time of report</t>
   </si>
   <si>
-    <t>10:37:48 AM</t>
+    <t>10:45:01 AM</t>
   </si>
   <si>
     <t>Total unique contributors across GitLab</t>

--- a/dev-count-runs/scm_summary_20251205.xlsx
+++ b/dev-count-runs/scm_summary_20251205.xlsx
@@ -34,7 +34,7 @@
     <t>Time of report</t>
   </si>
   <si>
-    <t>10:45:01 AM</t>
+    <t>10:51:52 AM</t>
   </si>
   <si>
     <t>Total unique contributors across GitLab</t>

--- a/dev-count-runs/scm_summary_20251205.xlsx
+++ b/dev-count-runs/scm_summary_20251205.xlsx
@@ -5,13 +5,15 @@
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
     <sheet sheetId="1" name="SCM Report Summary" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="GitHub Details" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="GitHub Details - Removed" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
     <t>SCM Report Summary</t>
   </si>
@@ -34,7 +36,7 @@
     <t>Time of report</t>
   </si>
   <si>
-    <t>10:51:52 AM</t>
+    <t>10:57:25 AM</t>
   </si>
   <si>
     <t>Total unique contributors across GitLab</t>
@@ -47,6 +49,54 @@
   </si>
   <si>
     <t>Total unique across All SCM Platforms</t>
+  </si>
+  <si>
+    <t>Repository</t>
+  </si>
+  <si>
+    <t>Committer</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>julz0815/dev-count-test-headless</t>
+  </si>
+  <si>
+    <t>Julian Totzek-Hallhuber</t>
+  </si>
+  <si>
+    <t>j.totzek@gmail.com</t>
+  </si>
+  <si>
+    <t>Veracode Dev Count</t>
+  </si>
+  <si>
+    <t>dev-count@veracode.com</t>
+  </si>
+  <si>
+    <t>julian-veracode/veracode</t>
+  </si>
+  <si>
+    <t>julz0815/veracode-dev-count</t>
+  </si>
+  <si>
+    <t>julz0815/dast-findings-per-scan</t>
+  </si>
+  <si>
+    <t>julz0815/remove-mitigations-pipeline-scan</t>
+  </si>
+  <si>
+    <t>julz0815/test-action</t>
+  </si>
+  <si>
+    <t>julian-veracode/GitHubApp-no-config</t>
+  </si>
+  <si>
+    <t>julz0815/trivia-app</t>
+  </si>
+  <si>
+    <t>julian-veracode/GitHubApp-with-config</t>
   </si>
 </sst>
 </file>
@@ -479,7 +529,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>115</v>
@@ -507,7 +557,169 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="50" customWidth="1"/>
+    <col min="2" max="3" width="40" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="50" customWidth="1"/>
+    <col min="2" max="3" width="40" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
